--- a/src/database/tabela-de-exemplo.xlsx
+++ b/src/database/tabela-de-exemplo.xlsx
@@ -746,84 +746,84 @@
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1" s="14">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="13" t="inlineStr">
         <is>
           <t>gutowork@gmail.com</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="13" t="inlineStr">
         <is>
           <t>Biricotico123</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="13" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" s="13" t="inlineStr">
         <is>
           <t>Grupo 32</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="13" t="inlineStr">
         <is>
           <t>184.705.268-12</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" s="13" t="inlineStr">
         <is>
           <t>(00) 0000-0000</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G8" s="13" t="inlineStr">
         <is>
           <t>05/03/1973</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H8" s="13" t="inlineStr">
         <is>
           <t>Rua X 123, Botucatu, SP 04641-000</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1" s="14">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="13" t="inlineStr">
         <is>
           <t>gutoto@gmail.com</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="13" t="inlineStr">
         <is>
           <t>Tobias</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="13" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" s="13" t="inlineStr">
         <is>
           <t>Grupo 122</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" s="13" t="inlineStr">
         <is>
           <t>000.000.000-00</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" s="13" t="inlineStr">
         <is>
           <t>(00) 0000-0000</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G9" s="13" t="inlineStr">
         <is>
           <t>01/02/2002</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H9" s="13" t="inlineStr">
         <is>
           <t>Avenida Test 123, Botucatu, SP 12345-000</t>
         </is>

--- a/src/database/tabela-de-exemplo.xlsx
+++ b/src/database/tabela-de-exemplo.xlsx
@@ -535,7 +535,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:H1002"/>
+  <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
@@ -632,207 +632,131 @@
     <row r="5" ht="15.75" customHeight="1" s="14">
       <c r="A5" s="19" t="inlineStr">
         <is>
-          <t>nayadioli@gmail.com</t>
+          <t>mf2009@gmail.com</t>
         </is>
       </c>
       <c r="B5" s="19" t="inlineStr">
         <is>
-          <t>Nayara di Oliveira123</t>
+          <t>Mariana Fidalga</t>
         </is>
       </c>
-      <c r="C5" s="20" t="inlineStr">
+      <c r="C5" s="20" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" s="20" t="inlineStr">
+        <is>
+          <t>Grupo 5</t>
+        </is>
+      </c>
+      <c r="E5" s="23" t="n"/>
+      <c r="F5" s="20" t="n">
+        <v>11980575120</v>
+      </c>
+      <c r="G5" s="21" t="n">
+        <v>37610</v>
+      </c>
+      <c r="H5" s="22" t="inlineStr">
+        <is>
+          <t>Marginal Clara Xavier 5752, Sobrado 25, Salesópolis, SC 48916-131</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1" s="14">
+      <c r="A6" s="19" t="inlineStr">
+        <is>
+          <t>jjmoraes2887dnn@hotmail.com</t>
+        </is>
+      </c>
+      <c r="B6" s="19" t="inlineStr">
+        <is>
+          <t>Lucas</t>
+        </is>
+      </c>
+      <c r="C6" s="20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D6" s="20" t="inlineStr">
+        <is>
+          <t>Grupo 3</t>
+        </is>
+      </c>
+      <c r="E6" s="20" t="inlineStr">
+        <is>
+          <t>739.303.520-01</t>
+        </is>
+      </c>
+      <c r="F6" s="20" t="inlineStr">
+        <is>
+          <t>(12) 9935-46121</t>
+        </is>
+      </c>
+      <c r="G6" s="20" t="inlineStr">
+        <is>
+          <t>25/12/2022</t>
+        </is>
+      </c>
+      <c r="H6" s="22" t="inlineStr">
+        <is>
+          <t>Alameda Janaína Freitas s/n, Barra Funda, RS 94890-450</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1" s="14">
+      <c r="A7" s="13" t="inlineStr">
+        <is>
+          <t>gutowork@gmail.com</t>
+        </is>
+      </c>
+      <c r="B7" s="13" t="inlineStr">
+        <is>
+          <t>Biricotico123</t>
+        </is>
+      </c>
+      <c r="C7" s="13" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D5" s="20" t="inlineStr">
-        <is>
-          <t>Grupo 1</t>
-        </is>
-      </c>
-      <c r="E5" s="20" t="inlineStr">
-        <is>
-          <t>000.000.000-00</t>
-        </is>
-      </c>
-      <c r="F5" s="20" t="inlineStr">
-        <is>
-          <t>(71) 9861-41964</t>
-        </is>
-      </c>
-      <c r="G5" s="21" t="inlineStr">
-        <is>
-          <t>04/03/2000</t>
-        </is>
-      </c>
-      <c r="H5" s="22" t="inlineStr">
-        <is>
-          <t>Alameda Fabrício Diegues 9499, Saquarema, RR 87808-429</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1" s="14">
-      <c r="A6" s="19" t="inlineStr">
-        <is>
-          <t>mf2009@gmail.com</t>
-        </is>
-      </c>
-      <c r="B6" s="19" t="inlineStr">
-        <is>
-          <t>Mariana Fidalga</t>
-        </is>
-      </c>
-      <c r="C6" s="20" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" s="20" t="inlineStr">
-        <is>
-          <t>Grupo 5</t>
-        </is>
-      </c>
-      <c r="E6" s="23" t="n"/>
-      <c r="F6" s="20" t="n">
-        <v>11980575120</v>
-      </c>
-      <c r="G6" s="21" t="n">
-        <v>37610</v>
-      </c>
-      <c r="H6" s="22" t="inlineStr">
-        <is>
-          <t>Marginal Clara Xavier 5752, Sobrado 25, Salesópolis, SC 48916-131</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1" s="14">
-      <c r="A7" s="19" t="inlineStr">
-        <is>
-          <t>jjmoraes2887dnn@hotmail.com</t>
-        </is>
-      </c>
-      <c r="B7" s="19" t="inlineStr">
-        <is>
-          <t>Lucas</t>
-        </is>
-      </c>
-      <c r="C7" s="20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D7" s="20" t="inlineStr">
-        <is>
-          <t>Grupo 3</t>
-        </is>
-      </c>
-      <c r="E7" s="20" t="inlineStr">
-        <is>
-          <t>739.303.520-01</t>
-        </is>
-      </c>
-      <c r="F7" s="20" t="inlineStr">
-        <is>
-          <t>(12) 9935-46121</t>
-        </is>
-      </c>
-      <c r="G7" s="20" t="inlineStr">
-        <is>
-          <t>25/12/2022</t>
-        </is>
-      </c>
-      <c r="H7" s="22" t="inlineStr">
-        <is>
-          <t>Alameda Janaína Freitas s/n, Barra Funda, RS 94890-450</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1" s="14">
-      <c r="A8" s="13" t="inlineStr">
-        <is>
-          <t>gutowork@gmail.com</t>
-        </is>
-      </c>
-      <c r="B8" s="13" t="inlineStr">
-        <is>
-          <t>Biricotico123</t>
-        </is>
-      </c>
-      <c r="C8" s="13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D8" s="13" t="inlineStr">
+      <c r="D7" s="13" t="inlineStr">
         <is>
           <t>Grupo 32</t>
         </is>
       </c>
-      <c r="E8" s="13" t="inlineStr">
+      <c r="E7" s="13" t="inlineStr">
         <is>
           <t>184.705.268-12</t>
         </is>
       </c>
-      <c r="F8" s="13" t="inlineStr">
+      <c r="F7" s="13" t="inlineStr">
         <is>
           <t>(00) 0000-0000</t>
         </is>
       </c>
-      <c r="G8" s="13" t="inlineStr">
+      <c r="G7" s="13" t="inlineStr">
         <is>
           <t>05/03/1973</t>
         </is>
       </c>
-      <c r="H8" s="13" t="inlineStr">
+      <c r="H7" s="13" t="inlineStr">
         <is>
           <t>Rua X 123, Botucatu, SP 04641-000</t>
         </is>
       </c>
     </row>
+    <row r="8" ht="15.75" customHeight="1" s="14">
+      <c r="A8" s="24" t="n"/>
+      <c r="B8" s="24" t="n"/>
+      <c r="G8" s="25" t="n"/>
+    </row>
     <row r="9" ht="15.75" customHeight="1" s="14">
-      <c r="A9" s="13" t="inlineStr">
-        <is>
-          <t>gutoto@gmail.com</t>
-        </is>
-      </c>
-      <c r="B9" s="13" t="inlineStr">
-        <is>
-          <t>Tobias</t>
-        </is>
-      </c>
-      <c r="C9" s="13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D9" s="13" t="inlineStr">
-        <is>
-          <t>Grupo 122</t>
-        </is>
-      </c>
-      <c r="E9" s="13" t="inlineStr">
-        <is>
-          <t>000.000.000-00</t>
-        </is>
-      </c>
-      <c r="F9" s="13" t="inlineStr">
-        <is>
-          <t>(00) 0000-0000</t>
-        </is>
-      </c>
-      <c r="G9" s="13" t="inlineStr">
-        <is>
-          <t>01/02/2002</t>
-        </is>
-      </c>
-      <c r="H9" s="13" t="inlineStr">
-        <is>
-          <t>Avenida Test 123, Botucatu, SP 12345-000</t>
-        </is>
-      </c>
+      <c r="A9" s="24" t="n"/>
+      <c r="B9" s="24" t="n"/>
     </row>
     <row r="10" ht="15.75" customHeight="1" s="14">
       <c r="A10" s="24" t="n"/>
       <c r="B10" s="24" t="n"/>
-      <c r="G10" s="25" t="n"/>
     </row>
     <row r="11" ht="15.75" customHeight="1" s="14">
       <c r="A11" s="24" t="n"/>
@@ -4794,14 +4718,8 @@
       <c r="A1000" s="24" t="n"/>
       <c r="B1000" s="24" t="n"/>
     </row>
-    <row r="1001" ht="15.75" customHeight="1" s="14">
-      <c r="A1001" s="24" t="n"/>
-      <c r="B1001" s="24" t="n"/>
-    </row>
-    <row r="1002" ht="15.75" customHeight="1" s="14">
-      <c r="A1002" s="24" t="n"/>
-      <c r="B1002" s="24" t="n"/>
-    </row>
+    <row r="1001" ht="15.75" customHeight="1" s="14"/>
+    <row r="1002" ht="15.75" customHeight="1" s="14"/>
     <row r="1003" ht="15.75" customHeight="1" s="14"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
